--- a/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109C3FFE-00D6-46E3-B148-8188360EB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3F5C1E-C4F9-4633-940F-461874586968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2815EE30-4B7A-4FAF-A921-AC2FCE3C521B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87240931-042F-43A7-BF9A-B2FE27302604}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,27 @@
     <t>4,84%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -163,27 +184,6 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>95,41%</t>
   </si>
   <si>
@@ -265,6 +265,24 @@
     <t>2,91%</t>
   </si>
   <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>97,32%</t>
   </si>
   <si>
@@ -295,24 +313,6 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>99,02%</t>
   </si>
   <si>
@@ -412,6 +412,30 @@
     <t>6,02%</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
     <t>98,59%</t>
   </si>
   <si>
@@ -446,30 +470,6 @@
   </si>
   <si>
     <t>5,17%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052D75A8-BB8E-4C29-AC68-339FE80A3736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B71C2E-14DE-49EA-885F-D969E0E7AA05}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1182,49 +1182,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>52871</v>
+        <v>42390</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>97552</v>
+        <v>75093</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,19 +1233,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1299,10 +1299,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1331,55 +1331,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>42390</v>
+        <v>52871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>75093</v>
+        <v>97552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,19 +1388,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2184</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1439,10 +1439,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1454,10 +1454,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1469,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1655,7 +1655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11D217F-FB40-458F-9261-D66FBE7031D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23E6856-31A7-4790-8C79-15C17608911C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,49 +1928,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>44654</v>
+        <v>66677</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>76</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>82</v>
-      </c>
       <c r="I7" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>168</v>
+      </c>
+      <c r="N7" s="7">
+        <v>121831</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>147</v>
-      </c>
-      <c r="N7" s="7">
-        <v>101545</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,19 +1979,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2006,22 +2006,22 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1232</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>45886</v>
+        <v>66677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2045,10 +2045,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2060,10 +2060,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N9" s="7">
-        <v>102777</v>
+        <v>121831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2077,55 +2077,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
-        <v>66677</v>
+        <v>44654</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>121831</v>
+        <v>101545</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,19 +2134,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2161,19 +2161,19 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1232</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>90</v>
@@ -2185,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>66677</v>
+        <v>45886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2200,10 +2200,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2215,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>121831</v>
+        <v>102777</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2401,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50418F2-3395-46BA-90CD-C8AB1232169E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7E308-76BD-4ACC-9553-33D88BE75AA3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2674,46 +2674,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>49988</v>
+        <v>46696</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>78</v>
+      </c>
+      <c r="I7" s="7">
+        <v>51807</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>80</v>
-      </c>
-      <c r="I7" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>106231</v>
+        <v>98503</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2725,49 +2725,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>772</v>
+        <v>1222</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1489</v>
+        <v>1222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>50705</v>
+        <v>46696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2791,10 +2791,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>57015</v>
+        <v>53029</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2806,10 +2806,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>107720</v>
+        <v>99725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2823,52 +2823,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>46696</v>
+        <v>49988</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>51807</v>
+        <v>56243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>98503</v>
+        <v>106231</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2880,28 +2880,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>772</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1222</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1222</v>
+        <v>1489</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>142</v>
@@ -2931,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>46696</v>
+        <v>50705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2946,10 +2946,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>53029</v>
+        <v>57015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2961,10 +2961,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>99725</v>
+        <v>107720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3F5C1E-C4F9-4633-940F-461874586968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02BD350-1061-4254-AC35-386D2DAA03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87240931-042F-43A7-BF9A-B2FE27302604}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B486C4-F50B-4F9E-B04C-F895C541425C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,115 +100,136 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -193,331 +238,370 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
     <t>99,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
   </si>
 </sst>
 </file>
@@ -528,7 +612,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -624,39 +708,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -708,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -819,13 +903,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -834,6 +911,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -898,19 +982,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B71C2E-14DE-49EA-885F-D969E0E7AA05}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4554E46C-8189-426C-B099-B8BB044FDE4A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1027,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>46474</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1042,34 +1146,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>46485</v>
+        <v>1436</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>92959</v>
+        <v>1436</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1078,10 +1182,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>29655</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1093,34 +1197,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>1436</v>
+        <v>27599</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
-        <v>1436</v>
+        <v>57254</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1129,49 +1233,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,49 +1286,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>32703</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>75093</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,49 +1337,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>43221</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>94181</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,49 +1388,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,49 +1441,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>52871</v>
+        <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>44681</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>813</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>144</v>
-      </c>
-      <c r="N10" s="7">
-        <v>97552</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,49 +1492,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>2184</v>
+        <v>23053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>2184</v>
+        <v>45560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,102 +1543,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>141735</v>
+        <v>1371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1371</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" s="7">
-        <v>188</v>
-      </c>
-      <c r="I13" s="7">
-        <v>123869</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>400</v>
-      </c>
-      <c r="N13" s="7">
-        <v>265604</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,49 +1647,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>2184</v>
+        <v>38067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>1436</v>
+        <v>30543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>102</v>
+      </c>
+      <c r="N14" s="7">
+        <v>68610</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,55 +1698,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2184</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1436</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3620</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>141735</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>188</v>
+      </c>
+      <c r="I17" s="7">
+        <v>123869</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>400</v>
+      </c>
+      <c r="N17" s="7">
+        <v>265604</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1655,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23E6856-31A7-4790-8C79-15C17608911C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E8FA69-565C-49CB-B177-712A6036B13D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1672,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1773,49 +2038,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>78274</v>
+        <v>641</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>627</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>110</v>
-      </c>
-      <c r="I4" s="7">
-        <v>74320</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1268</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>221</v>
-      </c>
-      <c r="N4" s="7">
-        <v>152594</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,49 +2089,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>51108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>48229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>1268</v>
+        <v>99338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,49 +2140,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>78915</v>
+        <v>51749</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>74947</v>
+        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>153862</v>
+        <v>100606</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +2193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>66677</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>55154</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>121831</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,49 +2244,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>74671</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>65247</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>139918</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,49 +2295,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>66677</v>
+        <v>74671</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>55154</v>
+        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="N9" s="7">
-        <v>121831</v>
+        <v>139918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2348,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>44654</v>
+        <v>625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>56891</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>101545</v>
+        <v>625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2399,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>1232</v>
+        <v>31869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>37728</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>1232</v>
+        <v>69598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,102 +2450,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45886</v>
+        <v>32494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56891</v>
+        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>102777</v>
+        <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>189605</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>186365</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>607</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>536</v>
-      </c>
-      <c r="N13" s="7">
-        <v>375970</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,49 +2554,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>1873</v>
+        <v>31956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>627</v>
+        <v>35161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>67117</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,55 +2605,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>32563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7">
+        <v>67724</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1873</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>627</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2500</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>268</v>
+      </c>
+      <c r="D17" s="7">
+        <v>189605</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="7">
+        <v>268</v>
+      </c>
+      <c r="I17" s="7">
+        <v>186365</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>536</v>
+      </c>
+      <c r="N17" s="7">
+        <v>375970</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>271</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>191478</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>269</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>186992</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>540</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>378470</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2401,8 +2827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D7E308-76BD-4ACC-9553-33D88BE75AA3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3095E-8297-4012-9780-68232976B852}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2418,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2519,49 +2945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>50072</v>
+        <v>652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>50458</v>
+        <v>2034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>100530</v>
+        <v>2686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,49 +2996,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>652</v>
+        <v>30266</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7">
-        <v>2034</v>
+        <v>29259</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>2686</v>
+        <v>59525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,49 +3047,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>50724</v>
+        <v>30918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>52492</v>
+        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>103216</v>
+        <v>62211</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +3100,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>46696</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>51807</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>605</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>145</v>
-      </c>
-      <c r="N7" s="7">
-        <v>98503</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,49 +3151,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>47366</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="I8" s="7">
-        <v>1222</v>
+        <v>50495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>1222</v>
+        <v>97861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,49 +3202,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>46696</v>
+        <v>47366</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>53029</v>
+        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>99725</v>
+        <v>98466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,49 +3255,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>49988</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>617</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>80</v>
-      </c>
-      <c r="I10" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="L10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>617</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>149</v>
-      </c>
-      <c r="N10" s="7">
-        <v>106231</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,49 +3306,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>717</v>
+        <v>42800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>62</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43286</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>772</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>122</v>
+      </c>
+      <c r="N11" s="7">
+        <v>86086</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1489</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,102 +3357,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>50705</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>57015</v>
+        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>107720</v>
+        <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>146755</v>
+        <v>717</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>772</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>239</v>
-      </c>
-      <c r="I13" s="7">
-        <v>158508</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>452</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>305263</v>
+        <v>1489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,49 +3461,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>1370</v>
+        <v>26324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>4028</v>
+        <v>35467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>5398</v>
+        <v>61792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,55 +3512,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63281</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4028</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5398</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>213</v>
+      </c>
+      <c r="D17" s="7">
+        <v>146755</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>239</v>
+      </c>
+      <c r="I17" s="7">
+        <v>158508</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="7">
+        <v>452</v>
+      </c>
+      <c r="N17" s="7">
+        <v>305263</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>148125</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>245</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>162536</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>460</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>310661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02BD350-1061-4254-AC35-386D2DAA03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{723FD1BD-7015-4561-8506-B21B604F103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B486C4-F50B-4F9E-B04C-F895C541425C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E99DF735-BC92-4F22-B00B-B137EE1BDD34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="190">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>15,09%</t>
+    <t>15,1%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>8,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>95,05%</t>
   </si>
   <si>
-    <t>84,91%</t>
+    <t>84,9%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>91,55%</t>
+    <t>91,72%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -145,7 +145,7 @@
     <t>3,41%</t>
   </si>
   <si>
-    <t>13,87%</t>
+    <t>16,66%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -154,13 +154,13 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>8,6%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>86,13%</t>
+    <t>83,34%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -169,7 +169,7 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>91,4%</t>
+    <t>90,0%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -178,7 +178,7 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>10,63%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -187,13 +187,13 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>89,37%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -202,7 +202,7 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>93,05%</t>
+    <t>93,84%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -211,25 +211,25 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>95,96%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -238,13 +238,13 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -256,37 +256,37 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,37%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>92,68%</t>
+    <t>92,63%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>96,12%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -310,7 +310,7 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -319,13 +319,13 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -334,13 +334,13 @@
     <t>99,11%</t>
   </si>
   <si>
-    <t>96,34%</t>
+    <t>95,5%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>9,18%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -349,13 +349,13 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>91,49%</t>
+    <t>90,82%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -364,106 +364,106 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,01%</t>
+    <t>95,39%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido laxantes en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -472,13 +472,13 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,24%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -487,13 +487,13 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,76%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,92%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -502,13 +502,13 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,27%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -517,91 +517,97 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>92,73%</t>
+    <t>93,0%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,37%</t>
+    <t>96,63%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>11,07%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>11,75%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>8,09%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>86,29%</t>
+    <t>88,93%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>89,67%</t>
+    <t>88,25%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>91,91%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4554E46C-8189-426C-B099-B8BB044FDE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7650EB5-929D-4560-A1D2-17CA95822635}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1920,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E8FA69-565C-49CB-B177-712A6036B13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657B0D80-4B4A-4E05-8665-6B64A465FA9F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B3095E-8297-4012-9780-68232976B852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F278909-678A-46D6-A719-381F738F00D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,10 +3595,10 @@
         <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3601,13 +3607,13 @@
         <v>5398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,10 +3628,10 @@
         <v>146755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3637,13 +3643,13 @@
         <v>158508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3652,13 +3658,13 @@
         <v>305263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{723FD1BD-7015-4561-8506-B21B604F103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAC707F-2510-4A7F-A129-06EFBE71CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E99DF735-BC92-4F22-B00B-B137EE1BDD34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA3F0F3-5C96-4B1B-B2C7-869EF60F5D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="186">
   <si>
     <t>Menores según si ha consumido laxantes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,30 +73,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>4,95%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>16,82%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -106,103 +112,103 @@
     <t>100%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>91,7%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
+    <t>97,14%</t>
+  </si>
+  <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>86,1%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>91,43%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>11,83%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>88,17%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>93,84%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -211,40 +217,34 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -253,118 +253,124 @@
     <t>Menores según si ha consumido laxantes en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>93,71%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>0,97%</t>
   </si>
   <si>
+    <t>97,96%</t>
+  </si>
+  <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
     <t>99,03%</t>
   </si>
   <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>88,45%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>95,5%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>91,81%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,39%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -373,241 +379,223 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>Menores según si ha consumido laxantes en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>89,57%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,63%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>13,49%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>86,51%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>91,91%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>96,76%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7650EB5-929D-4560-A1D2-17CA95822635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E936769-8239-44ED-B8A4-0C90184C7A93}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,10 +1125,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1152,16 +1140,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1436</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1176,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1191,7 +1179,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>29655</v>
+        <v>27599</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1206,16 +1194,16 @@
         <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>27599</v>
+        <v>29655</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -1230,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,34 +1227,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -1275,13 +1263,13 @@
         <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>27</v>
@@ -1313,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>28</v>
@@ -1328,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>29</v>
@@ -1343,34 +1331,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>50960</v>
+        <v>43221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>76</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50960</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>66</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43221</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -1379,13 +1367,13 @@
         <v>94181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,34 +1382,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>142</v>
@@ -1430,13 +1418,13 @@
         <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,28 +1435,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>813</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -1486,7 +1474,7 @@
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>38</v>
@@ -1498,28 +1486,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>35</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>23053</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22507</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>41</v>
@@ -1540,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,34 +1537,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -1585,13 +1573,13 @@
         <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,28 +1590,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1371</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1641,7 +1629,7 @@
         <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>49</v>
@@ -1653,28 +1641,28 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>57</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>38067</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30543</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>52</v>
@@ -1695,7 +1683,7 @@
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,34 +1692,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>104</v>
@@ -1740,13 +1728,13 @@
         <v>69981</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,31 +1745,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2184</v>
+        <v>1436</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2184</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>59</v>
@@ -1808,10 +1796,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>141735</v>
+        <v>123869</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
@@ -1820,22 +1808,22 @@
         <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
+        <v>212</v>
+      </c>
+      <c r="I17" s="7">
+        <v>141735</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123869</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>400</v>
@@ -1859,34 +1847,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>405</v>
@@ -1895,13 +1883,13 @@
         <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657B0D80-4B4A-4E05-8665-6B64A465FA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EE3870-3DC0-4435-A427-9EB3D603E282}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2047,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>72</v>
@@ -2062,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>74</v>
@@ -2083,7 +2071,7 @@
         <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>76</v>
@@ -2095,10 +2083,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7">
-        <v>51108</v>
+        <v>48229</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>77</v>
@@ -2107,13 +2095,13 @@
         <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7">
-        <v>48229</v>
+        <v>51108</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>79</v>
@@ -2122,13 +2110,13 @@
         <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>99338</v>
+        <v>99337</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>81</v>
@@ -2137,7 +2125,7 @@
         <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,49 +2134,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48856</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>73</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>51749</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>72</v>
-      </c>
-      <c r="I6" s="7">
-        <v>48856</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>145</v>
       </c>
       <c r="N6" s="7">
-        <v>100606</v>
+        <v>100605</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>83</v>
@@ -2220,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>84</v>
@@ -2235,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
@@ -2250,34 +2238,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>74671</v>
+        <v>65247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>104</v>
+      </c>
+      <c r="I8" s="7">
+        <v>74671</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>93</v>
-      </c>
-      <c r="I8" s="7">
-        <v>65247</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>197</v>
@@ -2286,13 +2274,13 @@
         <v>139918</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,34 +2289,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>104</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>74671</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65247</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>197</v>
@@ -2337,13 +2325,13 @@
         <v>139918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>625</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -2393,7 +2381,7 @@
         <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>93</v>
@@ -2405,28 +2393,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>45</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>31869</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>37728</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>96</v>
@@ -2447,7 +2435,7 @@
         <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,34 +2444,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32494</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37728</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -2492,13 +2480,13 @@
         <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,28 +2497,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>607</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -2548,7 +2536,7 @@
         <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>103</v>
@@ -2560,28 +2548,28 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
         <v>47</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>31956</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35161</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>106</v>
@@ -2602,7 +2590,7 @@
         <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,34 +2599,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32563</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>51</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35161</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>99</v>
@@ -2647,13 +2635,13 @@
         <v>67724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,31 +2652,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1873</v>
+        <v>627</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1873</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>627</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>113</v>
@@ -2718,7 +2706,7 @@
         <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>189605</v>
+        <v>186365</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>117</v>
@@ -2727,22 +2715,22 @@
         <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
       </c>
       <c r="I17" s="7">
-        <v>186365</v>
+        <v>189605</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>536</v>
@@ -2766,34 +2754,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>269</v>
+      </c>
+      <c r="D18" s="7">
+        <v>186992</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>271</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>191478</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>540</v>
@@ -2802,13 +2790,13 @@
         <v>378470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,7 +2821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F278909-678A-46D6-A719-381F738F00D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CE8B28-5D4C-4721-B8CB-6358A4B7DD3A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,34 +2939,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>652</v>
+        <v>2034</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2034</v>
+        <v>652</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2987,13 +2975,13 @@
         <v>2686</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,34 +2990,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29259</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7">
         <v>47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30266</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>48</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29259</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -3038,13 +3026,13 @@
         <v>59525</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,34 +3041,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>30918</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31293</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>99</v>
@@ -3089,13 +3077,13 @@
         <v>62211</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,34 +3094,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>605</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3142,13 +3130,13 @@
         <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,34 +3145,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>47366</v>
+        <v>50495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>50495</v>
+        <v>47366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -3193,13 +3181,13 @@
         <v>97861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,34 +3196,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47366</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51100</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>149</v>
@@ -3244,13 +3232,13 @@
         <v>98466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,34 +3249,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>617</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3297,13 +3285,13 @@
         <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,34 +3300,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>42800</v>
+        <v>43286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>43286</v>
+        <v>42800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -3348,13 +3336,13 @@
         <v>86086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,34 +3351,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42800</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43903</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -3399,13 +3387,13 @@
         <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,31 +3407,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3452,13 +3440,13 @@
         <v>1489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,34 +3455,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35467</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>36</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>26324</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35467</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -3503,13 +3491,13 @@
         <v>61792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,34 +3506,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27041</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="7">
-        <v>36239</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -3554,13 +3542,13 @@
         <v>63281</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,34 +3559,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1370</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3607,13 +3595,13 @@
         <v>5398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,34 +3610,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>239</v>
+      </c>
+      <c r="D17" s="7">
+        <v>158508</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
         <v>213</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>146755</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>239</v>
-      </c>
-      <c r="I17" s="7">
-        <v>158508</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>452</v>
@@ -3658,13 +3646,13 @@
         <v>305263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,34 +3661,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>245</v>
+      </c>
+      <c r="D18" s="7">
+        <v>162536</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>148125</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>460</v>
@@ -3709,13 +3697,13 @@
         <v>310661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
